--- a/ExcelTemplate/SIM_Resource_Import_Template.xlsx
+++ b/ExcelTemplate/SIM_Resource_Import_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vincent\PythonData\API_Helper\mvno-platform\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9271350-266E-4741-90D4-F88FE8AE29C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAF32146-5FD9-4247-87EE-4B6F057D00F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0FF9766F-09CB-466E-A2E9-E6F94BFD0A9E}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Import" sheetId="4" r:id="rId1"/>
     <sheet name="Config" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Import!$A$1:$R$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Provider</t>
   </si>
@@ -77,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Quadcell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Montnet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,9 +102,6 @@
     <t>PUK1</t>
   </si>
   <si>
-    <t xml:space="preserve">PIN2 </t>
-  </si>
-  <si>
     <t>PUK2</t>
   </si>
   <si>
@@ -124,15 +120,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MNT000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNT001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNT002</t>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign Date</t>
+  </si>
+  <si>
+    <t>PIN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUHK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHKT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45412_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45412_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simlessly eSIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neware eSIM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +210,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,7 +219,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,15 +256,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -563,65 +620,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56663A12-1137-4B32-B46A-F3EC16B9C4DF}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="9" max="9" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="14.75" customWidth="1"/>
+    <col min="17" max="17" width="14.75" style="8" customWidth="1"/>
+    <col min="18" max="18" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -630,12 +707,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{20901258-6D3D-4ED9-8835-7319AA66B8F8}">
-          <x14:formula1>
-            <xm:f>Config!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7D427968-94B5-4609-B994-C609D8844CDB}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$4</xm:f>
@@ -644,9 +715,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9121EF17-BA4E-4332-852A-B8EF19906F74}">
           <x14:formula1>
-            <xm:f>Config!$D$2:$D$4</xm:f>
+            <xm:f>Config!$D$2:$D$8</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{20901258-6D3D-4ED9-8835-7319AA66B8F8}">
+          <x14:formula1>
+            <xm:f>Config!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -656,10 +733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0987057-3FE7-46C2-90CC-F56277719596}">
-  <dimension ref="B1:D4"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -677,37 +754,63 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
+      <c r="D2" s="2">
+        <v>45407</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
+      <c r="D3" s="2">
+        <v>45400</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
+      <c r="D4" s="2">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
